--- a/Project104_N. B. Simmons(2008).xlsx
+++ b/Project104_N. B. Simmons(2008).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded copy 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA52F3DF-D3E4-F246-A20F-654FC3D9A348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A7E2EE-5042-4A91-B2FE-DC7D49FEEAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A97BDDDE-45CE-D042-B9CD-AFF9B3995B16}"/>
+    <workbookView xWindow="255" yWindow="390" windowWidth="15945" windowHeight="18375" xr2:uid="{A97BDDDE-45CE-D042-B9CD-AFF9B3995B16}"/>
   </bookViews>
   <sheets>
     <sheet name="Project104" sheetId="1" r:id="rId1"/>
@@ -783,55 +783,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>71618</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>64954</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>743949</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>67734</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6007E83A-6967-955A-A54A-0C45E3AC2EBC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10570285" y="352821"/>
-          <a:ext cx="10629131" cy="6505180"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1157,13 +1108,13 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.33203125" customWidth="1"/>
-    <col min="2" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="83.375" customWidth="1"/>
+    <col min="2" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1174,7 +1125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1185,7 +1136,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1196,7 +1147,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1205,7 +1156,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1214,7 +1165,7 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1225,7 +1176,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1236,7 +1187,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1247,7 +1198,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1258,7 +1209,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1269,7 +1220,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1280,7 +1231,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1291,7 +1242,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1300,7 +1251,7 @@
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1311,7 +1262,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1322,7 +1273,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1330,7 +1281,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1341,7 +1292,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1352,7 +1303,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1363,7 +1314,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1374,7 +1325,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1385,7 +1336,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1396,7 +1347,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1407,7 +1358,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1418,7 +1369,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1427,7 +1378,7 @@
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1438,7 +1389,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1449,7 +1400,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1460,7 +1411,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1471,7 +1422,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1482,7 +1433,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1493,7 +1444,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1504,7 +1455,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1515,7 +1466,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1526,7 +1477,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1537,7 +1488,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1548,7 +1499,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1559,7 +1510,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1570,7 +1521,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1581,7 +1532,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1592,7 +1543,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1603,7 +1554,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1614,7 +1565,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1625,7 +1576,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1636,7 +1587,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1647,7 +1598,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1658,7 +1609,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1669,7 +1620,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1680,7 +1631,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1691,7 +1642,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1702,7 +1653,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1713,7 +1664,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1724,7 +1675,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1735,7 +1686,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1746,7 +1697,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1757,7 +1708,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1768,7 +1719,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -1779,7 +1730,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1790,7 +1741,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -1801,7 +1752,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -1812,7 +1763,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -1823,7 +1774,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -1834,7 +1785,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -1845,7 +1796,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -1856,7 +1807,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -1867,7 +1818,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -1878,7 +1829,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -1889,7 +1840,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -1900,7 +1851,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -1909,7 +1860,7 @@
       </c>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -1920,7 +1871,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -1931,7 +1882,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -1942,7 +1893,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -1953,7 +1904,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -1964,7 +1915,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -1972,7 +1923,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -1983,7 +1934,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -1994,7 +1945,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -2005,7 +1956,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -2016,7 +1967,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -2027,7 +1978,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -2035,7 +1986,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -2043,7 +1994,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -2054,7 +2005,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -2063,7 +2014,7 @@
       </c>
       <c r="C84" s="2"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -2074,7 +2025,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -2085,7 +2036,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -2096,7 +2047,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -2107,7 +2058,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -2118,7 +2069,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -2129,7 +2080,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -2140,7 +2091,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -2151,7 +2102,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -2159,7 +2110,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -2170,7 +2121,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -2181,7 +2132,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -2192,7 +2143,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -2203,7 +2154,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -2214,7 +2165,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -2225,7 +2176,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -2236,7 +2187,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -2247,7 +2198,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -2258,7 +2209,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -2269,7 +2220,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -2280,7 +2231,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -2291,7 +2242,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -2302,7 +2253,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -2313,7 +2264,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -2324,7 +2275,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -2335,7 +2286,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>111</v>
       </c>
@@ -2346,7 +2297,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>112</v>
       </c>
@@ -2357,7 +2308,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>113</v>
       </c>
@@ -2368,7 +2319,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>114</v>
       </c>
@@ -2379,7 +2330,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -2390,7 +2341,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>116</v>
       </c>
@@ -2401,7 +2352,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>117</v>
       </c>
@@ -2412,7 +2363,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>118</v>
       </c>
@@ -2423,7 +2374,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>119</v>
       </c>
@@ -2434,7 +2385,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>120</v>
       </c>
@@ -2445,7 +2396,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>121</v>
       </c>
@@ -2456,7 +2407,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>122</v>
       </c>
@@ -2467,7 +2418,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>123</v>
       </c>
@@ -2478,7 +2429,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>124</v>
       </c>
@@ -2486,7 +2437,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>125</v>
       </c>
@@ -2497,7 +2448,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>126</v>
       </c>
@@ -2508,7 +2459,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>127</v>
       </c>
@@ -2519,7 +2470,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>128</v>
       </c>
@@ -2530,7 +2481,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>129</v>
       </c>
@@ -2541,7 +2492,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>130</v>
       </c>
@@ -2552,7 +2503,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>131</v>
       </c>
@@ -2563,7 +2514,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>132</v>
       </c>
@@ -2574,7 +2525,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>133</v>
       </c>
@@ -2585,7 +2536,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>134</v>
       </c>
@@ -2596,7 +2547,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>135</v>
       </c>
@@ -2607,7 +2558,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>136</v>
       </c>
@@ -2618,7 +2569,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>137</v>
       </c>
@@ -2629,7 +2580,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>138</v>
       </c>
@@ -2640,7 +2591,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>139</v>
       </c>
@@ -2651,7 +2602,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>140</v>
       </c>
@@ -2662,7 +2613,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>141</v>
       </c>
@@ -2673,7 +2624,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>142</v>
       </c>
@@ -2684,7 +2635,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>143</v>
       </c>
@@ -2695,7 +2646,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>144</v>
       </c>
@@ -2706,7 +2657,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>145</v>
       </c>
@@ -2717,7 +2668,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>146</v>
       </c>
@@ -2728,7 +2679,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>147</v>
       </c>
@@ -2739,7 +2690,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>148</v>
       </c>
@@ -2750,7 +2701,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>149</v>
       </c>
@@ -2759,7 +2710,7 @@
       </c>
       <c r="C148" s="2"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>150</v>
       </c>
@@ -2770,7 +2721,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>151</v>
       </c>
@@ -2781,7 +2732,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>152</v>
       </c>
@@ -2792,7 +2743,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>153</v>
       </c>
@@ -2803,7 +2754,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>154</v>
       </c>
@@ -2814,7 +2765,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>155</v>
       </c>
@@ -2825,7 +2776,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>156</v>
       </c>
@@ -2836,7 +2787,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>157</v>
       </c>
@@ -2847,7 +2798,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>158</v>
       </c>
@@ -2858,7 +2809,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>159</v>
       </c>
@@ -2869,7 +2820,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>160</v>
       </c>
@@ -2880,7 +2831,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>161</v>
       </c>
@@ -2891,7 +2842,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>162</v>
       </c>
@@ -2902,7 +2853,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>163</v>
       </c>
@@ -2913,7 +2864,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>164</v>
       </c>
@@ -2924,7 +2875,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>165</v>
       </c>
@@ -2935,7 +2886,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>166</v>
       </c>
@@ -2946,7 +2897,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>167</v>
       </c>
@@ -2955,7 +2906,7 @@
       </c>
       <c r="C166" s="2"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>168</v>
       </c>
@@ -2966,7 +2917,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>169</v>
       </c>
@@ -2977,7 +2928,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>170</v>
       </c>
@@ -2988,7 +2939,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>171</v>
       </c>
@@ -2999,7 +2950,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>172</v>
       </c>
@@ -3008,7 +2959,7 @@
       </c>
       <c r="C171" s="2"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>173</v>
       </c>
@@ -3016,7 +2967,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>174</v>
       </c>
@@ -3027,7 +2978,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>175</v>
       </c>
@@ -3038,7 +2989,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>176</v>
       </c>
@@ -3047,7 +2998,7 @@
       </c>
       <c r="C175" s="2"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>177</v>
       </c>
@@ -3058,7 +3009,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>178</v>
       </c>
@@ -3069,7 +3020,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>179</v>
       </c>
@@ -3080,7 +3031,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>180</v>
       </c>
@@ -3091,7 +3042,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>181</v>
       </c>
@@ -3102,7 +3053,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>182</v>
       </c>
@@ -3113,7 +3064,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>183</v>
       </c>
@@ -3124,7 +3075,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>184</v>
       </c>
@@ -3135,7 +3086,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>185</v>
       </c>
@@ -3146,7 +3097,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>186</v>
       </c>
@@ -3157,7 +3108,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>187</v>
       </c>
@@ -3168,7 +3119,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>188</v>
       </c>
@@ -3179,7 +3130,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>189</v>
       </c>
@@ -3190,7 +3141,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>190</v>
       </c>
@@ -3199,7 +3150,7 @@
       </c>
       <c r="C189" s="2"/>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>191</v>
       </c>
@@ -3210,7 +3161,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>192</v>
       </c>
@@ -3221,7 +3172,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>193</v>
       </c>
@@ -3232,7 +3183,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>194</v>
       </c>
@@ -3243,7 +3194,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>195</v>
       </c>
@@ -3254,7 +3205,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>196</v>
       </c>
@@ -3263,7 +3214,7 @@
       </c>
       <c r="C195" s="2"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>197</v>
       </c>
@@ -3272,7 +3223,7 @@
       </c>
       <c r="C196" s="2"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>198</v>
       </c>
@@ -3283,7 +3234,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>199</v>
       </c>
@@ -3294,7 +3245,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>200</v>
       </c>
@@ -3305,7 +3256,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>201</v>
       </c>
@@ -3316,7 +3267,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>202</v>
       </c>
@@ -3327,7 +3278,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>203</v>
       </c>
@@ -3336,7 +3287,7 @@
       </c>
       <c r="C202" s="2"/>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>204</v>
       </c>
@@ -3345,7 +3296,7 @@
       </c>
       <c r="C203" s="2"/>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>205</v>
       </c>
@@ -3354,7 +3305,7 @@
       </c>
       <c r="C204" s="2"/>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>206</v>
       </c>
@@ -3365,7 +3316,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>207</v>
       </c>
@@ -3376,7 +3327,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>208</v>
       </c>
@@ -3384,7 +3335,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>209</v>
       </c>
@@ -3398,6 +3349,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>